--- a/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>000882 (2021)</t>
+          <t>000,882 (2021)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Textile</t>
+          <t>Apparel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aerospace</t>
+          <t>Aerospace &amp; Defence</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Chemicals</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Logistics</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Telecommunication</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Basic Materials</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Aerospace &amp; Defence</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Biotech</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Aerospace &amp; Defence</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Chemicals</t>
+          <t>Medical Technology</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Medical Equipment</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Automotive</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">

--- a/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
@@ -841,7 +841,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DPW.DE</t>
+          <t>DHL.DE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">

--- a/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/dax_tickers.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>126.495 (2021)</t>
+          <t>126,495 (2021)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>000,882 (2021)</t>
+          <t>000882 (2021)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>025.486 (2022)</t>
+          <t>025,486 (2022)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
